--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Calculating Excution Time</t>
   </si>
@@ -193,6 +193,14 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,14 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,228 +542,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <f>A11</f>
         <v>4150</v>
       </c>
-      <c r="F3" s="6">
-        <f>F11</f>
-        <v>1.3107976653696498</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="3">
+        <f>A17</f>
+        <v>0.99084337349397589</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <f>E3*F3*G3</f>
-        <v>6799.7628891050581</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E5" si="0">A12</f>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4" si="0">A12</f>
         <v>4134</v>
       </c>
-      <c r="F4" s="6">
-        <f>F12</f>
-        <v>1.767597559079602</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3">
+        <f>A18</f>
+        <v>1.8962264150943395</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <f>E4*F4*G4</f>
-        <v>9134.0603865438443</v>
+        <v>9798.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3">
         <f>A13</f>
         <v>4134</v>
       </c>
-      <c r="F5" s="9">
-        <f>F13</f>
-        <v>3.0370189610888048</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="3">
+        <f>A19</f>
+        <v>2.0483792936623124</v>
+      </c>
+      <c r="G5" s="6">
         <v>1.25</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <f>E5*F5*G5</f>
-        <v>15693.795481426398</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>4150</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>4112</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>31</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>514</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f>(A11/B11)+(C11/D11)*E11</f>
         <v>1.3107976653696498</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>4134</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>7839</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>127</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>512</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f>(A12/B12)+(C12/D12)*E12</f>
         <v>1.767597559079602</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>4134</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>8468</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>261</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>512</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f>(A13/B13)+(C13/D13)*E13</f>
         <v>3.0370189610888048</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B11/A11</f>
+        <v>0.99084337349397589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:A19" si="1">B12/A12</f>
+        <v>1.8962264150943395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>2.0483792936623124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
